--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB6504B-FD21-4B6B-BAB7-3EB416AFF34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B297A018-7746-4299-8152-72183C04D8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>ข</t>
   </si>
 </sst>
 </file>
@@ -149,19 +152,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,278 +474,278 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="45" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="19" width="3" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="19" width="3" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>11</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>28</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B297A018-7746-4299-8152-72183C04D8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8022799E-1592-47D9-A12C-4BCA84859593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -474,7 +474,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -595,7 +595,9 @@
       <c r="E5" s="1">
         <v>11</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -620,7 +622,9 @@
       <c r="E6" s="1">
         <v>28</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -645,7 +649,9 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -674,7 +680,9 @@
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -703,7 +711,9 @@
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -732,7 +742,9 @@
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8022799E-1592-47D9-A12C-4BCA84859593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1A82D-E15D-41D9-A5CF-4E2BF1DE8CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -474,7 +474,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -598,7 +598,9 @@
       <c r="F5" s="1">
         <v>12</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -625,7 +627,9 @@
       <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>14</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -652,7 +656,9 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -683,7 +689,9 @@
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -714,7 +722,9 @@
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -745,7 +755,9 @@
       <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1A82D-E15D-41D9-A5CF-4E2BF1DE8CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AD3E02-0E44-4520-9E75-666877E2E826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -150,22 +150,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +477,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -488,105 +491,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -601,7 +604,9 @@
       <c r="G5" s="1">
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>12</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -615,9 +620,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,7 +635,9 @@
       <c r="G6" s="1">
         <v>14</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>19</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -644,9 +651,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -659,7 +666,9 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -679,20 +688,22 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -712,20 +723,22 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -745,20 +758,22 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3"/>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AD3E02-0E44-4520-9E75-666877E2E826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DB006E-4A7B-4669-909D-8067338EFFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -157,18 +157,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +477,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -491,105 +491,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -607,7 +607,9 @@
       <c r="H5" s="1">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>12</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -620,9 +622,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -638,7 +640,9 @@
       <c r="H6" s="1">
         <v>19</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>26</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -651,9 +655,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -669,7 +673,9 @@
       <c r="H7" s="1">
         <v>4</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -688,23 +694,25 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -723,23 +731,25 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -758,23 +768,25 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DB006E-4A7B-4669-909D-8067338EFFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F6761D-350D-4A01-A4AB-243EB47B4C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9870" yWindow="2280" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -172,7 +172,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -477,20 +477,20 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="45" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="19" width="3" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="2"/>
+    <col min="20" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -536,7 +536,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -559,7 +559,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -610,7 +610,9 @@
       <c r="I5" s="1">
         <v>12</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -621,7 +623,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -643,7 +645,9 @@
       <c r="I6" s="1">
         <v>26</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>22</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -654,7 +658,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -676,7 +680,9 @@
       <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -687,7 +693,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -713,7 +719,9 @@
       <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -724,7 +732,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -750,7 +758,9 @@
       <c r="I9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -761,7 +771,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -787,7 +797,9 @@
       <c r="I10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F6761D-350D-4A01-A4AB-243EB47B4C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDC2C7-D252-47A2-A854-26287847D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9870" yWindow="2280" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -477,7 +477,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -613,7 +613,9 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -648,7 +650,9 @@
       <c r="J6" s="1">
         <v>22</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>29</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -683,7 +687,9 @@
       <c r="J7" s="1">
         <v>6</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -722,7 +728,9 @@
       <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -761,7 +769,9 @@
       <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -800,7 +810,9 @@
       <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDC2C7-D252-47A2-A854-26287847D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA51758-770E-4353-8CA7-D720436D9BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="2280" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="2595" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -477,7 +477,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -616,7 +616,9 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -653,7 +655,9 @@
       <c r="K6" s="1">
         <v>29</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -690,7 +694,9 @@
       <c r="K7" s="1">
         <v>7</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1">
+        <v>8</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -731,7 +737,9 @@
       <c r="K8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -772,7 +780,9 @@
       <c r="K9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -813,7 +823,9 @@
       <c r="K10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/CHECK_LIST_121.xlsx
@@ -5,18 +5,27 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA51758-770E-4353-8CA7-D720436D9BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71EC19D-C8E5-4CF1-83C8-222B8965CA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="2595" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -172,7 +181,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -477,20 +486,20 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="45" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="19" width="3" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="2"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -513,7 +522,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -536,7 +545,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -559,7 +568,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -582,7 +591,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -619,15 +628,19 @@
       <c r="L5" s="1">
         <v>2</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -658,15 +671,19 @@
       <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1">
+        <v>27</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -697,15 +714,19 @@
       <c r="L7" s="1">
         <v>8</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1">
+        <v>10</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -740,15 +761,19 @@
       <c r="L8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -783,15 +808,19 @@
       <c r="L9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="M9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -826,8 +855,12 @@
       <c r="L10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="M10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
